--- a/data/pred_cal.xlsx
+++ b/data/pred_cal.xlsx
@@ -432,10 +432,10 @@
         <v>64.64827118683</v>
       </c>
       <c r="D3">
-        <v>28.73508685039455</v>
+        <v>12.71461901674608</v>
       </c>
       <c r="E3">
-        <v>121.8587414614251</v>
+        <v>116.5819233569139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,10 +449,10 @@
         <v>78.97042077306274</v>
       </c>
       <c r="D4">
-        <v>28.73508685039455</v>
+        <v>25.80811280641017</v>
       </c>
       <c r="E4">
-        <v>121.8587414614251</v>
+        <v>132.1327287397153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,10 +466,10 @@
         <v>66.38426650867017</v>
       </c>
       <c r="D5">
-        <v>28.73508685039455</v>
+        <v>12.92639221966384</v>
       </c>
       <c r="E5">
-        <v>121.8587414614251</v>
+        <v>119.8421407976765</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,10 +483,10 @@
         <v>126.353344005573</v>
       </c>
       <c r="D6">
-        <v>28.73508685039455</v>
+        <v>72.82358461368045</v>
       </c>
       <c r="E6">
-        <v>121.8587414614251</v>
+        <v>179.8831033974656</v>
       </c>
     </row>
   </sheetData>
